--- a/biology/Zoologie/Dolomedes_karijini/Dolomedes_karijini.xlsx
+++ b/biology/Zoologie/Dolomedes_karijini/Dolomedes_karijini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolomedes karijini est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolomedes karijini est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Pilbara en Australie-Occidentale[1]. Elle se rencontre dans le parc national de Karijini[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Pilbara en Australie-Occidentale. Elle se rencontre dans le parc national de Karijini.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 14,2 mm et la femelle paratype 22,50 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 14,2 mm et la femelle paratype 22,50 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le parc national de Karijini.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Hebron, 2018 : A review of the water spider family Pisauridae in Australia and New Caledonia with descriptions of four new genera and 23 new species. Memoirs of the Queensland Museum, Nature, vol. 60, p. 233-381 (texte intégral).</t>
         </is>
